--- a/mensagem_whatsapp/alunos.xlsx
+++ b/mensagem_whatsapp/alunos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Nome</t>
   </si>
@@ -30,19 +30,22 @@
     <t>Pagamento</t>
   </si>
   <si>
-    <t xml:space="preserve">Teste Ativo</t>
+    <t>Mae</t>
+  </si>
+  <si>
+    <t>8391979696</t>
+  </si>
+  <si>
+    <t>Ativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em dia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teste atrasado</t>
   </si>
   <si>
     <t>83999944947</t>
-  </si>
-  <si>
-    <t>Ativo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Em dia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teste atrasado</t>
   </si>
   <si>
     <t>Atrasado</t>
@@ -108,7 +111,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -121,6 +124,9 @@
     </xf>
     <xf fontId="1" fillId="0" borderId="1" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -662,10 +668,10 @@
       </c>
     </row>
     <row r="2" ht="28.5">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -679,25 +685,25 @@
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
